--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>007802</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>兴全合泰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>163412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>兴全轻资产混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.91</t>
+          <t>83.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163412</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全轻资产混合(LOF)</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>007803</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>兴全合泰混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>37.07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>37.07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007802</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴全合泰混合A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007803</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴全合泰混合C</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>007802</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>兴全合泰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>70.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.34</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>007803</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>兴全合泰混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>39.55</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>39.55</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007802</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全合泰混合A</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007803</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全合泰混合C</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.28</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.22</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.43</v>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,17 +3255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3274,14 +3295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.31</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3290,14 +3333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.28</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3306,14 +3371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.22</v>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3322,14 +3409,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>6.43</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="6">
@@ -3338,13 +3547,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3452,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,17 +3464,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3483,14 +3504,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3499,14 +3542,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.31</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3515,14 +3580,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>2.28</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="5">
@@ -3531,14 +3702,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>10.22</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="6">
@@ -3547,14 +3718,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>6.43</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="7">
@@ -3563,13 +3734,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>2.28</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>10.22</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>6.43</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.89</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002212-天融信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>2.28</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>10.22</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>6.43</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.89</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2322,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3194,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3514,478 +4175,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007802</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全合泰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.4634</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>83.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.3075</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007449</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9393</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>340006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全全球视野股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8313</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴全合泰混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6757</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519957</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4282</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519956</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4107</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2769</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2630</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1926</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007450</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴全多维价值混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>